--- a/c:\timerResults.xlsx
+++ b/c:\timerResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -759,6 +759,30 @@
   </si>
   <si>
     <t>PRIVATE:Raj_SalesForceCaseScript_16-08-04_11_22_43_98701.xml</t>
+  </si>
+  <si>
+    <t>https://salesforce.perfectomobile.com/services/reports/PRIVATE:Raj_SalesForceCaseScript_16-08-04_11_37_43_98740.xml?operation=download&amp;format=html&amp;user=rajp@perfectomobile.com&amp;password=</t>
+  </si>
+  <si>
+    <t>04/08/2016 07:37:43</t>
+  </si>
+  <si>
+    <t>6259</t>
+  </si>
+  <si>
+    <t>7545</t>
+  </si>
+  <si>
+    <t>6228</t>
+  </si>
+  <si>
+    <t>6375</t>
+  </si>
+  <si>
+    <t>https://demo.vod-download-01.perfectomobile.com/demo/647672315467564c494d713734357762553872464b7a326b6638337439776b4c4c6c5a55703352456c31453d/68f2a93390e2228b75d7c4df5c31bf043d625267eb945585b84b25d1af19a9cd.flv</t>
+  </si>
+  <si>
+    <t>PRIVATE:Raj_SalesForceCaseScript_16-08-04_11_37_43_98740.xml</t>
   </si>
 </sst>
 </file>
@@ -1615,6 +1639,32 @@
         <v>248</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" t="s">
+        <v>252</v>
+      </c>
+      <c r="E32" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" t="s">
+        <v>255</v>
+      </c>
+      <c r="H32" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/c:\timerResults.xlsx
+++ b/c:\timerResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="310">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -783,6 +783,165 @@
   </si>
   <si>
     <t>PRIVATE:Raj_SalesForceCaseScript_16-08-04_11_37_43_98740.xml</t>
+  </si>
+  <si>
+    <t>https://salesforce.perfectomobile.com/services/reports/PRIVATE:Raj_SalesForceCaseScript_16-08-04_11_52_43_98783.xml?operation=download&amp;format=html&amp;user=rajp@perfectomobile.com&amp;password=</t>
+  </si>
+  <si>
+    <t>04/08/2016 07:52:43</t>
+  </si>
+  <si>
+    <t>5519</t>
+  </si>
+  <si>
+    <t>7344</t>
+  </si>
+  <si>
+    <t>4240</t>
+  </si>
+  <si>
+    <t>https://demo.vod-download-01.perfectomobile.com/demo/647672315467564c494d713734357762553872464b7a326b6638337439776b4c4c6c5a55703352456c31453d/08c67cba81cf94c789d5ce7d3d6edc14b59ff2c54b0b5ec403512018c8fd0382.flv</t>
+  </si>
+  <si>
+    <t>PRIVATE:Raj_SalesForceCaseScript_16-08-04_11_52_43_98783.xml</t>
+  </si>
+  <si>
+    <t>https://salesforce.perfectomobile.com/services/reports/PRIVATE:Raj_SalesForceCaseScript_16-08-04_12_07_43_98882.xml?operation=download&amp;format=html&amp;user=rajp@perfectomobile.com&amp;password=</t>
+  </si>
+  <si>
+    <t>04/08/2016 08:07:43</t>
+  </si>
+  <si>
+    <t>5349</t>
+  </si>
+  <si>
+    <t>7068</t>
+  </si>
+  <si>
+    <t>3817</t>
+  </si>
+  <si>
+    <t>https://demo.vod-download-01.perfectomobile.com/demo/647672315467564c494d713734357762553872464b7a326b6638337439776b4c4c6c5a55703352456c31453d/61ea513135f14b0ca4795c9b109cd3c71f60dbcecbff3d408eed89ab9fbd5c3e.flv</t>
+  </si>
+  <si>
+    <t>PRIVATE:Raj_SalesForceCaseScript_16-08-04_12_07_43_98882.xml</t>
+  </si>
+  <si>
+    <t>https://salesforce.perfectomobile.com/services/reports/PRIVATE:Raj_SalesForceCaseScript_16-08-04_12_22_43_98940.xml?operation=download&amp;format=html&amp;user=rajp@perfectomobile.com&amp;password=</t>
+  </si>
+  <si>
+    <t>04/08/2016 08:22:43</t>
+  </si>
+  <si>
+    <t>5708</t>
+  </si>
+  <si>
+    <t>8369</t>
+  </si>
+  <si>
+    <t>5321</t>
+  </si>
+  <si>
+    <t>3890</t>
+  </si>
+  <si>
+    <t>https://demo.vod-download-01.perfectomobile.com/demo/647672315467564c494d713734357762553872464b7a326b6638337439776b4c4c6c5a55703352456c31453d/484b915dd453ffc91eb50d5d68f327b508eaa6ab3e2bf832bd99f595b2f28ab9.flv</t>
+  </si>
+  <si>
+    <t>PRIVATE:Raj_SalesForceCaseScript_16-08-04_12_22_43_98940.xml</t>
+  </si>
+  <si>
+    <t>https://salesforce.perfectomobile.com/services/reports/PRIVATE:Raj_SalesForceCaseScript_16-08-04_12_37_43_99000.xml?operation=download&amp;format=html&amp;user=rajp@perfectomobile.com&amp;password=</t>
+  </si>
+  <si>
+    <t>04/08/2016 08:37:43</t>
+  </si>
+  <si>
+    <t>7909</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>3534</t>
+  </si>
+  <si>
+    <t>https://demo.vod-download-01.perfectomobile.com/demo/647672315467564c494d713734357762553872464b7a326b6638337439776b4c4c6c5a55703352456c31453d/1ce0253752ce51e0711925a0d81502defcfa2caf916299d26d7ef3beead1c2cb.flv</t>
+  </si>
+  <si>
+    <t>PRIVATE:Raj_SalesForceCaseScript_16-08-04_12_37_43_99000.xml</t>
+  </si>
+  <si>
+    <t>https://salesforce.perfectomobile.com/services/reports/PRIVATE:Raj_SalesForceCaseScript_16-08-04_12_52_43_99055.xml?operation=download&amp;format=html&amp;user=rajp@perfectomobile.com&amp;password=</t>
+  </si>
+  <si>
+    <t>04/08/2016 08:52:43</t>
+  </si>
+  <si>
+    <t>5390</t>
+  </si>
+  <si>
+    <t>7821</t>
+  </si>
+  <si>
+    <t>5516</t>
+  </si>
+  <si>
+    <t>3772</t>
+  </si>
+  <si>
+    <t>https://demo.vod-download-01.perfectomobile.com/demo/647672315467564c494d713734357762553872464b7a326b6638337439776b4c4c6c5a55703352456c31453d/cbbe4d6f4fb73216917da9564245f1d4f22f0a9a3b354594a10efc60f31e40cf.flv</t>
+  </si>
+  <si>
+    <t>PRIVATE:Raj_SalesForceCaseScript_16-08-04_12_52_43_99055.xml</t>
+  </si>
+  <si>
+    <t>https://salesforce.perfectomobile.com/services/reports/PRIVATE:Raj_SalesForceCaseScript_16-08-04_13_07_43_99130.xml?operation=download&amp;format=html&amp;user=rajp@perfectomobile.com&amp;password=</t>
+  </si>
+  <si>
+    <t>04/08/2016 09:07:43</t>
+  </si>
+  <si>
+    <t>5885</t>
+  </si>
+  <si>
+    <t>10691</t>
+  </si>
+  <si>
+    <t>7645</t>
+  </si>
+  <si>
+    <t>3949</t>
+  </si>
+  <si>
+    <t>https://demo.vod-download-01.perfectomobile.com/demo/647672315467564c494d713734357762553872464b7a326b6638337439776b4c4c6c5a55703352456c31453d/9362f2da90800e6f135eb3c38c2ce93226603515d31130b513f2217b769795ca.flv</t>
+  </si>
+  <si>
+    <t>PRIVATE:Raj_SalesForceCaseScript_16-08-04_13_07_43_99130.xml</t>
+  </si>
+  <si>
+    <t>https://salesforce.perfectomobile.com/services/reports/PRIVATE:Raj_SalesForceCaseScript_16-08-04_13_22_43_99183.xml?operation=download&amp;format=html&amp;user=rajp@perfectomobile.com&amp;password=</t>
+  </si>
+  <si>
+    <t>04/08/2016 09:22:43</t>
+  </si>
+  <si>
+    <t>5621</t>
+  </si>
+  <si>
+    <t>7629</t>
+  </si>
+  <si>
+    <t>5376</t>
+  </si>
+  <si>
+    <t>3903</t>
+  </si>
+  <si>
+    <t>https://demo.vod-download-01.perfectomobile.com/demo/647672315467564c494d713734357762553872464b7a326b6638337439776b4c4c6c5a55703352456c31453d/534eeb746f8dfe3d9ad05339af8d000f928de41802cbe90e89c001bf0a4c9e52.flv</t>
+  </si>
+  <si>
+    <t>PRIVATE:Raj_SalesForceCaseScript_16-08-04_13_22_43_99183.xml</t>
   </si>
 </sst>
 </file>
@@ -1665,6 +1824,188 @@
         <v>256</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" t="s">
+        <v>262</v>
+      </c>
+      <c r="H33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" t="s">
+        <v>269</v>
+      </c>
+      <c r="H34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" t="s">
+        <v>274</v>
+      </c>
+      <c r="E35" t="s">
+        <v>275</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" t="s">
+        <v>277</v>
+      </c>
+      <c r="H35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>279</v>
+      </c>
+      <c r="B36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" t="s">
+        <v>282</v>
+      </c>
+      <c r="F36" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" t="s">
+        <v>284</v>
+      </c>
+      <c r="H36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" t="s">
+        <v>290</v>
+      </c>
+      <c r="F37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" t="s">
+        <v>292</v>
+      </c>
+      <c r="H37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" t="s">
+        <v>297</v>
+      </c>
+      <c r="E38" t="s">
+        <v>298</v>
+      </c>
+      <c r="F38" t="s">
+        <v>299</v>
+      </c>
+      <c r="G38" t="s">
+        <v>300</v>
+      </c>
+      <c r="H38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>302</v>
+      </c>
+      <c r="B39" t="s">
+        <v>303</v>
+      </c>
+      <c r="C39" t="s">
+        <v>304</v>
+      </c>
+      <c r="D39" t="s">
+        <v>305</v>
+      </c>
+      <c r="E39" t="s">
+        <v>306</v>
+      </c>
+      <c r="F39" t="s">
+        <v>307</v>
+      </c>
+      <c r="G39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H39" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/c:\timerResults.xlsx
+++ b/c:\timerResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="317">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -942,6 +942,27 @@
   </si>
   <si>
     <t>PRIVATE:Raj_SalesForceCaseScript_16-08-04_13_22_43_99183.xml</t>
+  </si>
+  <si>
+    <t>https://salesforce.perfectomobile.com/services/reports/PRIVATE:Raj_SalesForceCaseScript_16-08-04_13_37_43_99227.xml?operation=download&amp;format=html&amp;user=rajp@perfectomobile.com&amp;password=</t>
+  </si>
+  <si>
+    <t>04/08/2016 09:37:43</t>
+  </si>
+  <si>
+    <t>8759</t>
+  </si>
+  <si>
+    <t>6770</t>
+  </si>
+  <si>
+    <t>3980</t>
+  </si>
+  <si>
+    <t>https://demo.vod-download-01.perfectomobile.com/demo/647672315467564c494d713734357762553872464b7a326b6638337439776b4c4c6c5a55703352456c31453d/877772dae0f270833cc141538dfe10f7f1b12bd16b44b08802322d2518240e5e.flv</t>
+  </si>
+  <si>
+    <t>PRIVATE:Raj_SalesForceCaseScript_16-08-04_13_37_43_99227.xml</t>
   </si>
 </sst>
 </file>
@@ -2006,6 +2027,32 @@
         <v>309</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>310</v>
+      </c>
+      <c r="B40" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40" t="s">
+        <v>313</v>
+      </c>
+      <c r="F40" t="s">
+        <v>314</v>
+      </c>
+      <c r="G40" t="s">
+        <v>315</v>
+      </c>
+      <c r="H40" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
